--- a/TestCase/Demo/TestData/test.xlsx
+++ b/TestCase/Demo/TestData/test.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13358348214</t>
+          <t>13855376890</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13629207230</t>
+          <t>13146852801</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15933463335</t>
+          <t>14737987976</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13575650605</t>
+          <t>13470288347</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18824491109</t>
+          <t>13088253126</t>
         </is>
       </c>
     </row>
